--- a/output_register.xlsx
+++ b/output_register.xlsx
@@ -497,22 +497,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=uyDZJqPQZ7o</t>
+          <t>https://www.youtube.com/watch?v=pzjT7_3Gr5M</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>The Last of Us Part II - Enhanced Performance Patch | PS5</t>
+          <t>Como los NTFs están CAMBIANDO LA INDUSTRIA DE VIDEOJUEGOS</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>9M</t>
+          <t>113M</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>1.02 min</t>
+          <t>10.2 min</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=d1fsGM5kToM</t>
+          <t>https://www.youtube.com/watch?v=YqJ7J4UCIOk</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Rogue Lords - Exclusive Developer Combat Breakdown Trailer</t>
+          <t>Sony y la PRETENCIOSIDAD NARRATIVA</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>57M</t>
+          <t>158M</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>4.52 min</t>
+          <t>10.1 min</t>
         </is>
       </c>
     </row>
@@ -547,22 +547,22 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=n57AyXSWEEE</t>
+          <t>https://www.youtube.com/watch?v=qBsC1fQ1zRA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>The NBA Arrives In Fortnite</t>
+          <t>Los videojuegos NO SON PELÍCULAS!</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7M</t>
+          <t>176M</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0.67 min</t>
+          <t>11.8 min</t>
         </is>
       </c>
     </row>
@@ -717,25 +717,25 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=iqT7YvtjRuY</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Impossible Escape LTM Trailer - Fortnite</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>9M</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>0.78 min</t>
         </is>
